--- a/xlsx5/test.xlsx
+++ b/xlsx5/test.xlsx
@@ -16,29 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>用例名称*</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <color rgb="#ff0000"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -52,11 +52,14 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -141,7 +144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,8 +403,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2">
+        <f>请设置正确格式</f>
+        <v>用例名称</v>
       </c>
     </row>
   </sheetData>
